--- a/playingwithparameters.xlsx
+++ b/playingwithparameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\Sustainable-Logistics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A688F2E-3D05-451F-86A9-15C127F16225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2EAD0-F2F1-4BB9-895E-757F73088E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="240" windowWidth="22260" windowHeight="20505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="240" windowWidth="22260" windowHeight="20505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
   <si>
     <t>Veh1 Load</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Charging Cost</t>
   </si>
   <si>
-    <t>11 stops</t>
-  </si>
-  <si>
     <t>4 stops</t>
   </si>
   <si>
@@ -117,19 +114,10 @@
     <t>3 stops</t>
   </si>
   <si>
-    <t>13 stops</t>
+    <t>2 stops</t>
   </si>
   <si>
-    <t>6  stops</t>
-  </si>
-  <si>
-    <t>6 stops</t>
-  </si>
-  <si>
-    <t>10 stops</t>
-  </si>
-  <si>
-    <t>2 stops</t>
+    <t>1 stop</t>
   </si>
 </sst>
 </file>
@@ -500,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,23 +555,23 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>8471</v>
+        <v>6045</v>
       </c>
       <c r="G2">
-        <v>6335</v>
+        <v>4536</v>
       </c>
       <c r="H2">
-        <v>6335</v>
+        <v>4537</v>
       </c>
       <c r="I2">
-        <v>8436</v>
+        <v>6060</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
         <f>CORREL(A2:E2,F2:J2)</f>
-        <v>0.84732131524896215</v>
+        <v>0.84559167563573356</v>
       </c>
       <c r="M2">
         <v>16</v>
@@ -614,50 +602,48 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
         <v>16</v>
       </c>
     </row>
@@ -672,10 +658,13 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="G2" sqref="G2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -735,23 +724,23 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8471</v>
+        <v>6045</v>
       </c>
       <c r="H2">
-        <v>6335</v>
+        <v>4536</v>
       </c>
       <c r="I2">
-        <v>6335</v>
+        <v>4537</v>
       </c>
       <c r="J2">
-        <v>8436</v>
+        <v>6060</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <f>CORREL(A5:E5,G5:K5)</f>
-        <v>0.84732168264205554</v>
+        <f>CORREL(A2:E2,G2:K2)</f>
+        <v>0.84559167563573356</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -785,16 +774,16 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -821,19 +810,23 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8467</v>
+        <v>6041</v>
       </c>
       <c r="H5">
-        <v>6332</v>
+        <v>4533</v>
       </c>
       <c r="I5">
-        <v>6332</v>
+        <v>4534</v>
       </c>
       <c r="J5">
-        <v>8432</v>
+        <v>6056</v>
       </c>
       <c r="K5">
         <v>0</v>
+      </c>
+      <c r="N5">
+        <f>CORREL(A5:E5,G5:K5)</f>
+        <v>0.84559104728727175</v>
       </c>
       <c r="O5">
         <v>16</v>
@@ -864,16 +857,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -893,19 +886,23 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8463</v>
+        <v>6037</v>
       </c>
       <c r="H8">
-        <v>6329</v>
+        <v>4530</v>
       </c>
       <c r="I8">
-        <v>6329</v>
+        <v>4531</v>
       </c>
       <c r="J8">
-        <v>8428</v>
+        <v>6052</v>
       </c>
       <c r="K8">
         <v>0</v>
+      </c>
+      <c r="N8">
+        <f>CORREL(A8:E8,G8:K8)</f>
+        <v>0.84559041810528468</v>
       </c>
       <c r="O8">
         <v>16</v>
@@ -936,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -965,19 +962,23 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8459</v>
+        <v>6033</v>
       </c>
       <c r="H11">
-        <v>6326</v>
+        <v>4527</v>
       </c>
       <c r="I11">
-        <v>6326</v>
+        <v>4528</v>
       </c>
       <c r="J11">
-        <v>8424</v>
+        <v>6048</v>
       </c>
       <c r="K11">
         <v>0</v>
+      </c>
+      <c r="N11">
+        <f>CORREL(A11:E11,G11:K11)</f>
+        <v>0.84558978808811269</v>
       </c>
       <c r="O11">
         <v>16</v>
@@ -1008,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1037,19 +1038,23 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8455</v>
+        <v>6029</v>
       </c>
       <c r="H14">
-        <v>6323</v>
+        <v>4524</v>
       </c>
       <c r="I14">
-        <v>6323</v>
+        <v>4525</v>
       </c>
       <c r="J14">
-        <v>8420</v>
+        <v>6044</v>
       </c>
       <c r="K14">
         <v>0</v>
+      </c>
+      <c r="N14">
+        <f>CORREL(A14:E14,G14:K14)</f>
+        <v>0.84558915723409211</v>
       </c>
       <c r="O14">
         <v>16</v>
@@ -1080,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1142,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1206,23 +1211,23 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8471</v>
+        <v>6045</v>
       </c>
       <c r="H2">
-        <v>6335</v>
+        <v>4536</v>
       </c>
       <c r="I2">
-        <v>6335</v>
+        <v>4537</v>
       </c>
       <c r="J2">
-        <v>8436</v>
+        <v>6060</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <f>CORREL(A5:E5,G5:K5)</f>
-        <v>0.84720409122852802</v>
+        <f>CORREL(A2:E2,G2:K2)</f>
+        <v>0.84559167563573356</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -1253,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1292,19 +1297,23 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8468</v>
+        <v>6042</v>
       </c>
       <c r="H5">
-        <v>6331</v>
+        <v>4532</v>
       </c>
       <c r="I5">
-        <v>6331</v>
+        <v>4533</v>
       </c>
       <c r="J5">
-        <v>8433</v>
+        <v>6059</v>
       </c>
       <c r="K5">
         <v>0</v>
+      </c>
+      <c r="N5">
+        <f>CORREL(A5:E5,G5:K5)</f>
+        <v>0.84526600680384401</v>
       </c>
       <c r="O5">
         <v>16</v>
@@ -1335,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1364,19 +1373,23 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8465</v>
+        <v>6039</v>
       </c>
       <c r="H8">
-        <v>6329</v>
+        <v>4530</v>
       </c>
       <c r="I8">
-        <v>6329</v>
+        <v>4531</v>
       </c>
       <c r="J8">
-        <v>8432</v>
+        <v>6057</v>
       </c>
       <c r="K8">
         <v>0</v>
+      </c>
+      <c r="N8">
+        <f>CORREL(A8:E8,G8:K8)</f>
+        <v>0.84520828277430082</v>
       </c>
       <c r="O8">
         <v>16</v>
@@ -1407,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1436,19 +1449,23 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>8462</v>
+        <v>6036</v>
       </c>
       <c r="H11">
-        <v>6326</v>
+        <v>4526</v>
       </c>
       <c r="I11">
-        <v>6325</v>
+        <v>4527</v>
       </c>
       <c r="J11">
-        <v>8430</v>
+        <v>6055</v>
       </c>
       <c r="K11">
         <v>0</v>
+      </c>
+      <c r="N11">
+        <f>CORREL(A11:E11,G11:K11)</f>
+        <v>0.84496247884623132</v>
       </c>
       <c r="O11">
         <v>16</v>
@@ -1479,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1508,19 +1525,23 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8459</v>
+        <v>6032</v>
       </c>
       <c r="H14">
-        <v>6323</v>
+        <v>4525</v>
       </c>
       <c r="I14">
-        <v>6323</v>
+        <v>4524</v>
       </c>
       <c r="J14">
-        <v>8427</v>
+        <v>6053</v>
       </c>
       <c r="K14">
         <v>0</v>
+      </c>
+      <c r="N14">
+        <f>CORREL(A14:E14,G14:K14)</f>
+        <v>0.84489412954740062</v>
       </c>
       <c r="O14">
         <v>16</v>
@@ -1551,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1613,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,23 +1695,23 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8471</v>
+        <v>6045</v>
       </c>
       <c r="H2">
-        <v>6335</v>
+        <v>4536</v>
       </c>
       <c r="I2">
-        <v>6335</v>
+        <v>4537</v>
       </c>
       <c r="J2">
-        <v>8436</v>
+        <v>6060</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
         <f>CORREL(A2:E2,G2:K2)</f>
-        <v>0.84732131524896215</v>
+        <v>0.84559167563573356</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -1718,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1757,23 +1778,23 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8472</v>
+        <v>6039</v>
       </c>
       <c r="H5">
-        <v>8441</v>
+        <v>6032</v>
       </c>
       <c r="I5">
-        <v>8442</v>
+        <v>6042</v>
       </c>
       <c r="J5">
-        <v>4221</v>
+        <v>3013</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
         <f>CORREL(A5:E5,G5:K5)</f>
-        <v>0.9903267843572251</v>
+        <v>0.99035725742077185</v>
       </c>
       <c r="O5">
         <v>17</v>
@@ -1801,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
@@ -1830,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8475</v>
+        <v>6043</v>
       </c>
       <c r="H8">
-        <v>10056</v>
+        <v>7542</v>
       </c>
       <c r="I8">
-        <v>10547</v>
+        <v>7546</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1846,7 +1867,7 @@
       </c>
       <c r="N8">
         <f>CORREL(A8:E8,G8:K8)</f>
-        <v>0.96198936328602325</v>
+        <v>0.96283818511058117</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1877,13 +1898,13 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1903,23 +1924,23 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6362</v>
+        <v>4524</v>
       </c>
       <c r="H11">
-        <v>6335</v>
+        <v>4525</v>
       </c>
       <c r="I11">
-        <v>6335</v>
+        <v>4524</v>
       </c>
       <c r="J11">
-        <v>10542</v>
+        <v>7558</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
         <f>CORREL(A11:E11,G11:K11)</f>
-        <v>0.71612632059724812</v>
+        <v>0.71277604494903268</v>
       </c>
       <c r="O11">
         <v>15</v>
@@ -1947,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
         <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1976,23 +1997,23 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>8469</v>
+        <v>6031</v>
       </c>
       <c r="H14">
-        <v>4229</v>
+        <v>3019</v>
       </c>
       <c r="I14">
-        <v>6335</v>
+        <v>4522</v>
       </c>
       <c r="J14">
-        <v>8437</v>
+        <v>6045</v>
       </c>
       <c r="K14">
-        <v>2107</v>
+        <v>1517</v>
       </c>
       <c r="N14">
         <f>CORREL(A14:E14,G14:K14)</f>
-        <v>0.78734991092791529</v>
+        <v>0.78548849267919585</v>
       </c>
       <c r="O14">
         <v>14</v>
@@ -2026,13 +2047,13 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2132,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2199,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2281,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2353,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2425,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
         <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2497,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
         <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">

--- a/playingwithparameters.xlsx
+++ b/playingwithparameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\GitHub\Sustainable-Logistics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2EAD0-F2F1-4BB9-895E-757F73088E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CEAC61-4263-4E06-A435-7E47C9A27EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="240" windowWidth="22260" windowHeight="20505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="29">
   <si>
     <t>Veh1 Load</t>
   </si>
@@ -119,6 +119,15 @@
   <si>
     <t>1 stop</t>
   </si>
+  <si>
+    <t>6 stops</t>
+  </si>
+  <si>
+    <t>Graph:</t>
+  </si>
+  <si>
+    <t>Total distance</t>
+  </si>
 </sst>
 </file>
 
@@ -189,6 +198,2736 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ReducedChCost!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ReducedChCost!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ReducedChCost!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6573-4449-AFFF-294963F18D90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1340812255"/>
+        <c:axId val="1340816831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1340812255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340816831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340816831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340812255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ReducedChTime!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ReducedChTime!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ReducedChTime!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB81-475E-98B3-6805548EF276}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1061111743"/>
+        <c:axId val="1061107167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1061111743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061107167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1061107167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061111743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HigherCapVehicle!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capacity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>HigherCapVehicle!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF14-48DF-9FF2-66AC5F8425CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HigherCapVehicle!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>HigherCapVehicle!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF14-48DF-9FF2-66AC5F8425CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1309127039"/>
+        <c:axId val="1309127455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1309127039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309127455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1309127455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309127039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2ED45AE-BF13-E594-8760-D72B8B801E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FC5083-AE8A-8C3C-8BAC-800BF755E610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352985</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352985</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178173</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981E35A9-E2D4-EC91-4347-F070C1CAFA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,7 +3230,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,35 +3282,35 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6045</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>4536</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>4537</v>
+        <v>41</v>
       </c>
       <c r="I2">
-        <v>6060</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
         <f>CORREL(A2:E2,F2:J2)</f>
-        <v>0.84559167563573356</v>
+        <v>0.9111019385422775</v>
       </c>
       <c r="M2">
         <v>16</v>
@@ -584,22 +3323,22 @@
       </c>
       <c r="B3" s="2">
         <f>B2/$M$2</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C3" s="2">
         <f>C2/$M$2</f>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="2">
         <f>D2/$M$2</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="2">
         <f>E2/$M$2</f>
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -608,7 +3347,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -655,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,35 +3451,35 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6045</v>
+        <v>53</v>
       </c>
       <c r="H2">
-        <v>4536</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>4537</v>
+        <v>41</v>
       </c>
       <c r="J2">
-        <v>6060</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
         <f>CORREL(A2:E2,G2:K2)</f>
-        <v>0.84559167563573356</v>
+        <v>0.9111019385422775</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -756,22 +3495,22 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:E3" si="0">B2/$O2</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -780,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -798,35 +3537,35 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6041</v>
+        <v>47</v>
       </c>
       <c r="H5">
-        <v>4533</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>4534</v>
+        <v>38</v>
       </c>
       <c r="J5">
-        <v>6056</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
         <f>CORREL(A5:E5,G5:K5)</f>
-        <v>0.84559104728727175</v>
+        <v>0.91219326493894992</v>
       </c>
       <c r="O5">
         <v>16</v>
@@ -842,15 +3581,15 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6" si="1">B5/$O5</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ref="C6" si="2">C5/$O5</f>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6" si="3">D5/$O5</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6" si="4">E5/$O5</f>
@@ -874,35 +3613,35 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6037</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>4530</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>4531</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>6052</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
         <f>CORREL(A8:E8,G8:K8)</f>
-        <v>0.84559041810528468</v>
+        <v>0.91186258974334833</v>
       </c>
       <c r="O8">
         <v>16</v>
@@ -918,15 +3657,15 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ref="B9" si="5">B8/$O8</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9" si="6">C8/$O8</f>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9" si="7">D8/$O8</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9" si="8">E8/$O8</f>
@@ -950,35 +3689,35 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6033</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>4527</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>4528</v>
+        <v>32</v>
       </c>
       <c r="J11">
-        <v>6048</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
         <f>CORREL(A11:E11,G11:K11)</f>
-        <v>0.84558978808811269</v>
+        <v>0.90864030916093363</v>
       </c>
       <c r="O11">
         <v>16</v>
@@ -994,15 +3733,15 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ref="B12" si="9">B11/$O11</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ref="C12" si="10">C11/$O11</f>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12" si="11">D11/$O11</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ref="E12" si="12">E11/$O11</f>
@@ -1026,35 +3765,35 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>6029</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>4524</v>
+        <v>16</v>
       </c>
       <c r="I14">
-        <v>4525</v>
+        <v>29</v>
       </c>
       <c r="J14">
-        <v>6044</v>
+        <v>21</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
         <f>CORREL(A14:E14,G14:K14)</f>
-        <v>0.84558915723409211</v>
+        <v>0.89952664497460288</v>
       </c>
       <c r="O14">
         <v>16</v>
@@ -1070,15 +3809,15 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ref="B15" si="13">B14/$O14</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ref="C15" si="14">C14/$O14</f>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15" si="15">D14/$O14</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15" si="16">E14/$O14</f>
@@ -1138,17 +3877,74 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>P1</f>
+        <v>Charging Cost</v>
+      </c>
+      <c r="B24">
+        <f>P2</f>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f>P5</f>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>P8</f>
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f>P11</f>
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f>P14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <f>SUM(G2:K2)</f>
+        <v>151</v>
+      </c>
+      <c r="C25">
+        <f>SUM(G5:K5)</f>
+        <v>137</v>
+      </c>
+      <c r="D25">
+        <f>SUM(G8:K8)</f>
+        <v>123</v>
+      </c>
+      <c r="E25">
+        <f>SUM(G11:K11)</f>
+        <v>109</v>
+      </c>
+      <c r="F25">
+        <f>SUM(G14:K14)</f>
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A24" sqref="A24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,35 +3995,35 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6045</v>
+        <v>53</v>
       </c>
       <c r="H2">
-        <v>4536</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>4537</v>
+        <v>41</v>
       </c>
       <c r="J2">
-        <v>6060</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
         <f>CORREL(A2:E2,G2:K2)</f>
-        <v>0.84559167563573356</v>
+        <v>0.9111019385422775</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -1243,22 +4039,22 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:E3" si="0">B2/$O2</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -1267,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -1282,38 +4078,38 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6042</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>4532</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>4533</v>
+        <v>37</v>
       </c>
       <c r="J5">
-        <v>6059</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
         <f>CORREL(A5:E5,G5:K5)</f>
-        <v>0.84526600680384401</v>
+        <v>0.87377391702707985</v>
       </c>
       <c r="O5">
         <v>16</v>
@@ -1325,71 +4121,71 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>A5/$O5</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:E6" si="1">B5/$O5</f>
+        <f t="shared" ref="B6" si="1">B5/$O5</f>
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6" si="2">C5/$O5</f>
         <v>0.9375</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.9375</v>
-      </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
+        <f t="shared" ref="D6" si="3">D5/$O5</f>
+        <v>0.875</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E6" si="4">E5/$O5</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6039</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>4530</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>4531</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>6057</v>
+        <v>35</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
         <f>CORREL(A8:E8,G8:K8)</f>
-        <v>0.84520828277430082</v>
+        <v>0.77472120085710638</v>
       </c>
       <c r="O8">
         <v>16</v>
@@ -1401,35 +4197,35 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A8/$O8</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" ref="B9:E9" si="2">B8/$O8</f>
-        <v>0.9375</v>
+        <f t="shared" ref="B9" si="5">B8/$O8</f>
+        <v>0.875</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.9375</v>
+        <f t="shared" ref="C9" si="6">C8/$O8</f>
+        <v>0.6875</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
+        <f t="shared" ref="D9" si="7">D8/$O8</f>
+        <v>0.875</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E9" si="8">E8/$O8</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1437,35 +4233,35 @@
         <v>16</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>6036</v>
+        <v>44</v>
       </c>
       <c r="H11">
-        <v>4526</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>4527</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>6055</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
         <f>CORREL(A11:E11,G11:K11)</f>
-        <v>0.84496247884623132</v>
+        <v>0.90057432472694832</v>
       </c>
       <c r="O11">
         <v>16</v>
@@ -1480,68 +4276,68 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" ref="B12:E12" si="3">B11/$O11</f>
+        <f>B11/$O11</f>
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12" si="9">C11/$O11</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="10">D11/$O11</f>
         <v>0.9375</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.9375</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.625</v>
-      </c>
       <c r="E12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E12" si="11">E11/$O11</f>
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>6032</v>
-      </c>
-      <c r="H14">
-        <v>4525</v>
-      </c>
       <c r="I14">
-        <v>4524</v>
+        <v>36</v>
       </c>
       <c r="J14">
-        <v>6053</v>
+        <v>36</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
         <f>CORREL(A14:E14,G14:K14)</f>
-        <v>0.84489412954740062</v>
+        <v>0.83883350363024078</v>
       </c>
       <c r="O14">
         <v>16</v>
@@ -1553,22 +4349,22 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>A14/$O14</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" ref="B15:E15" si="4">B14/$O14</f>
+        <f t="shared" ref="B15" si="12">B14/$O14</f>
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15" si="13">C14/$O14</f>
+        <v>0.875</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="14">D14/$O14</f>
         <v>0.9375</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.9375</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="4"/>
-        <v>0.625</v>
-      </c>
       <c r="E15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E15" si="15">E14/$O14</f>
         <v>0</v>
       </c>
       <c r="G15" t="s">
@@ -1625,17 +4421,74 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>P1</f>
+        <v>Charging Time</v>
+      </c>
+      <c r="B24">
+        <f>P2</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>P5</f>
+        <v>0.8</v>
+      </c>
+      <c r="D24">
+        <f>P8</f>
+        <v>0.6</v>
+      </c>
+      <c r="E24">
+        <f>P11</f>
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <f>P14</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <f>SUM(G2:K2)</f>
+        <v>151</v>
+      </c>
+      <c r="C25">
+        <f>SUM(G5:K5)</f>
+        <v>136</v>
+      </c>
+      <c r="D25">
+        <f>SUM(G8:K8)</f>
+        <v>94</v>
+      </c>
+      <c r="E25">
+        <f>SUM(G11:K11)</f>
+        <v>116</v>
+      </c>
+      <c r="F25">
+        <f>SUM(G14:K14)</f>
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,35 +4536,35 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6045</v>
+        <v>53</v>
       </c>
       <c r="H2">
-        <v>4536</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>4537</v>
+        <v>41</v>
       </c>
       <c r="J2">
-        <v>6060</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
         <f>CORREL(A2:E2,G2:K2)</f>
-        <v>0.84559167563573356</v>
+        <v>0.9111019385422775</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -1724,22 +4577,22 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:E3" si="0">B2/$O2</f>
-        <v>0.9375</v>
+        <v>0.8125</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -1748,7 +4601,7 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -1763,38 +4616,38 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6039</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>6032</v>
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>6042</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>3013</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
         <f>CORREL(A5:E5,G5:K5)</f>
-        <v>0.99035725742077185</v>
+        <v>0.96167895335238396</v>
       </c>
       <c r="O5">
         <v>17</v>
@@ -1803,19 +4656,19 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>A5/$O5</f>
-        <v>1</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:E6" si="1">B5/$O5</f>
-        <v>0.94117647058823528</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>0.35294117647058826</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
@@ -1825,24 +4678,27 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1851,13 +4707,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6043</v>
+        <v>48</v>
       </c>
       <c r="H8">
-        <v>7542</v>
+        <v>36</v>
       </c>
       <c r="I8">
-        <v>7546</v>
+        <v>61</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1867,7 +4723,7 @@
       </c>
       <c r="N8">
         <f>CORREL(A8:E8,G8:K8)</f>
-        <v>0.96283818511058117</v>
+        <v>0.91173333619639263</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -1876,7 +4732,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>A8/$O8</f>
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ref="B9:E9" si="2">B8/$O8</f>
@@ -1884,7 +4740,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="2"/>
@@ -1895,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1906,41 +4762,44 @@
       <c r="J9" t="s">
         <v>19</v>
       </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4524</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>4525</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>4524</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>7558</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
         <f>CORREL(A11:E11,G11:K11)</f>
-        <v>0.71277604494903268</v>
+        <v>0.89888911787741199</v>
       </c>
       <c r="O11">
         <v>15</v>
@@ -1949,35 +4808,38 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>A11/$O11</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ref="B12:E12" si="3">B11/$O11</f>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="3"/>
-        <v>0.73333333333333328</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1985,35 +4847,35 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>6031</v>
+        <v>42</v>
       </c>
       <c r="H14">
-        <v>3019</v>
+        <v>46</v>
       </c>
       <c r="I14">
-        <v>4522</v>
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>6045</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>1517</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f>CORREL(A14:E14,G14:K14)</f>
-        <v>0.78548849267919585</v>
+        <v>0.82357712513735493</v>
       </c>
       <c r="O14">
         <v>14</v>
@@ -2026,7 +4888,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ref="B15:E15" si="4">B14/$O14</f>
-        <v>0.9285714285714286</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -2034,26 +4896,26 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="4"/>
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2097,17 +4959,74 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>O1</f>
+        <v>Capacity</v>
+      </c>
+      <c r="B24">
+        <f>O11</f>
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <f>O14</f>
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <f>O2</f>
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <f>O5</f>
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <f>O8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <f>SUM(G11:K11)</f>
+        <v>146</v>
+      </c>
+      <c r="C25">
+        <f>SUM(G14:K14)</f>
+        <v>149</v>
+      </c>
+      <c r="D25">
+        <f>SUM(G2:K2)</f>
+        <v>151</v>
+      </c>
+      <c r="E25">
+        <f>SUM(G5:K5)</f>
+        <v>147</v>
+      </c>
+      <c r="F25">
+        <f>SUM(G8:K8)</f>
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="A1:Q15"/>
+      <selection activeCell="A24" sqref="A24:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,6 +5496,62 @@
       </c>
       <c r="G22" s="1"/>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>P2</f>
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <f>P3</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>P6</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>P9</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>P12</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>P15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <f>SUM(G3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>SUM(G6:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>SUM(G9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>SUM(G12:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>SUM(G15:K15)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
